--- a/data/trans_orig/IP22D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98AEF0F8-5B44-4E2F-AC1B-AF0979DA4B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D026DF-3871-4C8D-A70D-2B2A4771C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3601066-6AB3-4763-B26C-2033E131EF60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9472A4C7-E058-41AF-BDF9-FE31FA2A3CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,13 +104,13 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>47,65%</t>
+    <t>51,5%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -119,13 +119,13 @@
     <t>92,23%</t>
   </si>
   <si>
-    <t>73,55%</t>
+    <t>75,05%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>52,35%</t>
+    <t>48,5%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -134,10 +134,10 @@
     <t>7,77%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -158,7 +158,7 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -203,7 +203,7 @@
     <t>97,28%</t>
   </si>
   <si>
-    <t>89,33%</t>
+    <t>91,12%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -212,13 +212,13 @@
     <t>98,57%</t>
   </si>
   <si>
-    <t>95,25%</t>
+    <t>94,53%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>10,67%</t>
+    <t>8,88%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -227,7 +227,7 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,75%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8730007-DCE3-4CD9-ACFF-3268F888F549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B553EC4-EFF6-4B4F-8A73-CF9DCECFDAD1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D026DF-3871-4C8D-A70D-2B2A4771C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94161125-2650-45B8-BCFE-D3E8B608ADD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9472A4C7-E058-41AF-BDF9-FE31FA2A3CC3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5DBFD696-676E-49F4-A9B3-736789B4CBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="58">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -74,16 +74,22 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>90,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -95,139 +101,112 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>91,36%</t>
+  </si>
+  <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
     <t>95,66%</t>
   </si>
   <si>
+    <t>8,64%</t>
+  </si>
+  <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
     <t>93,43%</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
     <t>6,57%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>79,25%</t>
+  </si>
+  <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
     <t>92,68%</t>
   </si>
   <si>
+    <t>20,75%</t>
+  </si>
+  <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
     <t>7,32%</t>
   </si>
   <si>
+    <t>97,01%</t>
+  </si>
+  <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>89,8%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>94,53%</t>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>10,2%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>5,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -642,8 +621,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B553EC4-EFF6-4B4F-8A73-CF9DCECFDAD1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0DB8EE-41B9-4B58-881B-AE71D0E6FEF4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -760,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -775,40 +754,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>1983</v>
+        <v>8777</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>2654</v>
+        <v>19606</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -817,43 +796,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1448</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1448</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -862,10 +841,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -877,10 +856,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -892,10 +871,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N6" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -909,76 +888,76 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>7326</v>
+        <v>20432</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>15963</v>
+        <v>37654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1345</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -987,25 +966,25 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1345</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>32</v>
@@ -1017,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>8671</v>
+        <v>20432</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1032,10 +1011,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1047,10 +1026,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N9" s="7">
-        <v>17308</v>
+        <v>37654</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1070,10 +1049,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1085,10 +1064,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>17017</v>
+        <v>11701</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1100,10 +1079,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>33381</v>
+        <v>23507</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1118,7 +1097,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1127,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>37</v>
@@ -1142,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>38</v>
@@ -1157,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>39</v>
@@ -1172,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1187,10 +1166,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>17017</v>
+        <v>11701</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1202,10 +1181,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N12" s="7">
-        <v>33381</v>
+        <v>23507</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1225,10 +1204,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>10467</v>
+        <v>5099</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1240,10 +1219,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>11551</v>
+        <v>14124</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1255,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>22018</v>
+        <v>19223</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -1273,7 +1252,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1282,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>44</v>
@@ -1297,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>45</v>
@@ -1312,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>46</v>
@@ -1327,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>10467</v>
+        <v>5099</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1342,10 +1321,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>11551</v>
+        <v>14124</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1357,10 +1336,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N15" s="7">
-        <v>22018</v>
+        <v>19223</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1374,61 +1353,61 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>13244</v>
+        <v>48166</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>62</v>
+      </c>
+      <c r="I16" s="7">
+        <v>51824</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5172</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N16" s="7">
-        <v>18416</v>
+        <v>99990</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1437,43 +1416,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1448</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1482,10 +1461,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7">
-        <v>13244</v>
+        <v>48166</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1497,10 +1476,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I18" s="7">
-        <v>5172</v>
+        <v>53272</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1512,10 +1491,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="N18" s="7">
-        <v>18416</v>
+        <v>101438</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1528,171 +1507,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>62</v>
-      </c>
-      <c r="D19" s="7">
-        <v>48072</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>63</v>
-      </c>
-      <c r="I19" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="7">
-        <v>125</v>
-      </c>
-      <c r="N19" s="7">
-        <v>92432</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1345</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1345</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>64</v>
-      </c>
-      <c r="D21" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>63</v>
-      </c>
-      <c r="I21" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>127</v>
-      </c>
-      <c r="N21" s="7">
-        <v>93777</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
